--- a/xlsx格式/world_total_data.xlsx
+++ b/xlsx格式/world_total_data.xlsx
@@ -92,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L137"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5192,19 +5192,19 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>6114473</v>
+        <v>6114595</v>
       </c>
       <c r="C135">
         <v>106645</v>
       </c>
       <c r="D135">
-        <v>2567653</v>
+        <v>2567694</v>
       </c>
       <c r="E135">
         <v>73066</v>
       </c>
       <c r="F135">
-        <v>3173598</v>
+        <v>3173675</v>
       </c>
       <c r="G135">
         <v>28563</v>
@@ -5213,7 +5213,7 @@
         <v>20200531</v>
       </c>
       <c r="I135">
-        <v>373222</v>
+        <v>373226</v>
       </c>
       <c r="J135">
         <v>5016</v>
@@ -5223,6 +5223,82 @@
       </c>
       <c r="L135">
         <v>16</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>6203476</v>
+      </c>
+      <c r="C136">
+        <v>88881</v>
+      </c>
+      <c r="D136">
+        <v>2616045</v>
+      </c>
+      <c r="E136">
+        <v>48351</v>
+      </c>
+      <c r="F136">
+        <v>3213333</v>
+      </c>
+      <c r="G136">
+        <v>39658</v>
+      </c>
+      <c r="H136">
+        <v>20200601</v>
+      </c>
+      <c r="I136">
+        <v>374098</v>
+      </c>
+      <c r="J136">
+        <v>872</v>
+      </c>
+      <c r="K136">
+        <v>1761</v>
+      </c>
+      <c r="L136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>6336847</v>
+      </c>
+      <c r="C137">
+        <v>133371</v>
+      </c>
+      <c r="D137">
+        <v>2717705</v>
+      </c>
+      <c r="E137">
+        <v>101660</v>
+      </c>
+      <c r="F137">
+        <v>3239434</v>
+      </c>
+      <c r="G137">
+        <v>26101</v>
+      </c>
+      <c r="H137">
+        <v>20200602</v>
+      </c>
+      <c r="I137">
+        <v>379708</v>
+      </c>
+      <c r="J137">
+        <v>5610</v>
+      </c>
+      <c r="K137">
+        <v>1762</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx格式/world_total_data.xlsx
+++ b/xlsx格式/world_total_data.xlsx
@@ -92,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L143"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5301,6 +5301,234 @@
         <v>1</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>6437087</v>
+      </c>
+      <c r="C138">
+        <v>100240</v>
+      </c>
+      <c r="D138">
+        <v>2787978</v>
+      </c>
+      <c r="E138">
+        <v>70273</v>
+      </c>
+      <c r="F138">
+        <v>3264970</v>
+      </c>
+      <c r="G138">
+        <v>25536</v>
+      </c>
+      <c r="H138">
+        <v>20200603</v>
+      </c>
+      <c r="I138">
+        <v>384139</v>
+      </c>
+      <c r="J138">
+        <v>4431</v>
+      </c>
+      <c r="K138">
+        <v>1763</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>6559343</v>
+      </c>
+      <c r="C139">
+        <v>122256</v>
+      </c>
+      <c r="D139">
+        <v>2829594</v>
+      </c>
+      <c r="E139">
+        <v>41616</v>
+      </c>
+      <c r="F139">
+        <v>3341211</v>
+      </c>
+      <c r="G139">
+        <v>76241</v>
+      </c>
+      <c r="H139">
+        <v>20200604</v>
+      </c>
+      <c r="I139">
+        <v>388538</v>
+      </c>
+      <c r="J139">
+        <v>4399</v>
+      </c>
+      <c r="K139">
+        <v>1768</v>
+      </c>
+      <c r="L139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>6694226</v>
+      </c>
+      <c r="C140">
+        <v>134883</v>
+      </c>
+      <c r="D140">
+        <v>2902160</v>
+      </c>
+      <c r="E140">
+        <v>72566</v>
+      </c>
+      <c r="F140">
+        <v>3398071</v>
+      </c>
+      <c r="G140">
+        <v>56860</v>
+      </c>
+      <c r="H140">
+        <v>20200605</v>
+      </c>
+      <c r="I140">
+        <v>393995</v>
+      </c>
+      <c r="J140">
+        <v>5457</v>
+      </c>
+      <c r="K140">
+        <v>1768</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>6823075</v>
+      </c>
+      <c r="C141">
+        <v>128849</v>
+      </c>
+      <c r="D141">
+        <v>2986089</v>
+      </c>
+      <c r="E141">
+        <v>83929</v>
+      </c>
+      <c r="F141">
+        <v>3438808</v>
+      </c>
+      <c r="G141">
+        <v>40737</v>
+      </c>
+      <c r="H141">
+        <v>20200606</v>
+      </c>
+      <c r="I141">
+        <v>398178</v>
+      </c>
+      <c r="J141">
+        <v>4183</v>
+      </c>
+      <c r="K141">
+        <v>1771</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>6955460</v>
+      </c>
+      <c r="C142">
+        <v>132385</v>
+      </c>
+      <c r="D142">
+        <v>3059785</v>
+      </c>
+      <c r="E142">
+        <v>73696</v>
+      </c>
+      <c r="F142">
+        <v>3493122</v>
+      </c>
+      <c r="G142">
+        <v>54314</v>
+      </c>
+      <c r="H142">
+        <v>20200607</v>
+      </c>
+      <c r="I142">
+        <v>402553</v>
+      </c>
+      <c r="J142">
+        <v>4375</v>
+      </c>
+      <c r="K142">
+        <v>1780</v>
+      </c>
+      <c r="L142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7063131</v>
+      </c>
+      <c r="C143">
+        <v>107671</v>
+      </c>
+      <c r="D143">
+        <v>3123521</v>
+      </c>
+      <c r="E143">
+        <v>63736</v>
+      </c>
+      <c r="F143">
+        <v>3533796</v>
+      </c>
+      <c r="G143">
+        <v>40674</v>
+      </c>
+      <c r="H143">
+        <v>20200608</v>
+      </c>
+      <c r="I143">
+        <v>405814</v>
+      </c>
+      <c r="J143">
+        <v>3261</v>
+      </c>
+      <c r="K143">
+        <v>1783</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/xlsx格式/world_total_data.xlsx
+++ b/xlsx格式/world_total_data.xlsx
@@ -92,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:L152"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5529,6 +5529,348 @@
         <v>3</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7180240</v>
+      </c>
+      <c r="C144">
+        <v>117109</v>
+      </c>
+      <c r="D144">
+        <v>3185966</v>
+      </c>
+      <c r="E144">
+        <v>62445</v>
+      </c>
+      <c r="F144">
+        <v>3584453</v>
+      </c>
+      <c r="G144">
+        <v>50657</v>
+      </c>
+      <c r="H144">
+        <v>20200609</v>
+      </c>
+      <c r="I144">
+        <v>409821</v>
+      </c>
+      <c r="J144">
+        <v>4007</v>
+      </c>
+      <c r="K144">
+        <v>1786</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7320810</v>
+      </c>
+      <c r="C145">
+        <v>140570</v>
+      </c>
+      <c r="D145">
+        <v>3307707</v>
+      </c>
+      <c r="E145">
+        <v>121741</v>
+      </c>
+      <c r="F145">
+        <v>3597972</v>
+      </c>
+      <c r="G145">
+        <v>13519</v>
+      </c>
+      <c r="H145">
+        <v>20200610</v>
+      </c>
+      <c r="I145">
+        <v>415131</v>
+      </c>
+      <c r="J145">
+        <v>5310</v>
+      </c>
+      <c r="K145">
+        <v>1797</v>
+      </c>
+      <c r="L145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7454759</v>
+      </c>
+      <c r="C146">
+        <v>133949</v>
+      </c>
+      <c r="D146">
+        <v>3375610</v>
+      </c>
+      <c r="E146">
+        <v>67903</v>
+      </c>
+      <c r="F146">
+        <v>3659206</v>
+      </c>
+      <c r="G146">
+        <v>61234</v>
+      </c>
+      <c r="H146">
+        <v>20200611</v>
+      </c>
+      <c r="I146">
+        <v>419943</v>
+      </c>
+      <c r="J146">
+        <v>4812</v>
+      </c>
+      <c r="K146">
+        <v>1803</v>
+      </c>
+      <c r="L146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7613718</v>
+      </c>
+      <c r="C147">
+        <v>158959</v>
+      </c>
+      <c r="D147">
+        <v>3443820</v>
+      </c>
+      <c r="E147">
+        <v>68210</v>
+      </c>
+      <c r="F147">
+        <v>3744458</v>
+      </c>
+      <c r="G147">
+        <v>85252</v>
+      </c>
+      <c r="H147">
+        <v>20200612</v>
+      </c>
+      <c r="I147">
+        <v>425440</v>
+      </c>
+      <c r="J147">
+        <v>5497</v>
+      </c>
+      <c r="K147">
+        <v>1808</v>
+      </c>
+      <c r="L147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7730126</v>
+      </c>
+      <c r="C148">
+        <v>116408</v>
+      </c>
+      <c r="D148">
+        <v>3520199</v>
+      </c>
+      <c r="E148">
+        <v>76379</v>
+      </c>
+      <c r="F148">
+        <v>3780550</v>
+      </c>
+      <c r="G148">
+        <v>36092</v>
+      </c>
+      <c r="H148">
+        <v>20200613</v>
+      </c>
+      <c r="I148">
+        <v>429377</v>
+      </c>
+      <c r="J148">
+        <v>3937</v>
+      </c>
+      <c r="K148">
+        <v>1827</v>
+      </c>
+      <c r="L148">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7859759</v>
+      </c>
+      <c r="C149">
+        <v>129633</v>
+      </c>
+      <c r="D149">
+        <v>3936752</v>
+      </c>
+      <c r="E149">
+        <v>416553</v>
+      </c>
+      <c r="F149">
+        <v>3490387</v>
+      </c>
+      <c r="G149">
+        <v>-290163</v>
+      </c>
+      <c r="H149">
+        <v>20200614</v>
+      </c>
+      <c r="I149">
+        <v>432620</v>
+      </c>
+      <c r="J149">
+        <v>3243</v>
+      </c>
+      <c r="K149">
+        <v>1837</v>
+      </c>
+      <c r="L149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7984683</v>
+      </c>
+      <c r="C150">
+        <v>124924</v>
+      </c>
+      <c r="D150">
+        <v>3670169</v>
+      </c>
+      <c r="E150">
+        <v>-266583</v>
+      </c>
+      <c r="F150">
+        <v>3878334</v>
+      </c>
+      <c r="G150">
+        <v>387947</v>
+      </c>
+      <c r="H150">
+        <v>20200615</v>
+      </c>
+      <c r="I150">
+        <v>436180</v>
+      </c>
+      <c r="J150">
+        <v>3560</v>
+      </c>
+      <c r="K150">
+        <v>1845</v>
+      </c>
+      <c r="L150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>8123566</v>
+      </c>
+      <c r="C151">
+        <v>138883</v>
+      </c>
+      <c r="D151">
+        <v>3740167</v>
+      </c>
+      <c r="E151">
+        <v>69998</v>
+      </c>
+      <c r="F151">
+        <v>3942119</v>
+      </c>
+      <c r="G151">
+        <v>63785</v>
+      </c>
+      <c r="H151">
+        <v>20200616</v>
+      </c>
+      <c r="I151">
+        <v>441280</v>
+      </c>
+      <c r="J151">
+        <v>5100</v>
+      </c>
+      <c r="K151">
+        <v>1856</v>
+      </c>
+      <c r="L151">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>8296905</v>
+      </c>
+      <c r="C152">
+        <v>173339</v>
+      </c>
+      <c r="D152">
+        <v>3831960</v>
+      </c>
+      <c r="E152">
+        <v>91793</v>
+      </c>
+      <c r="F152">
+        <v>4016868</v>
+      </c>
+      <c r="G152">
+        <v>74749</v>
+      </c>
+      <c r="H152">
+        <v>20200617</v>
+      </c>
+      <c r="I152">
+        <v>448077</v>
+      </c>
+      <c r="J152">
+        <v>6797</v>
+      </c>
+      <c r="K152">
+        <v>1860</v>
+      </c>
+      <c r="L152">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/xlsx格式/world_total_data.xlsx
+++ b/xlsx格式/world_total_data.xlsx
@@ -92,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L167"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5871,6 +5871,576 @@
         <v>4</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>8423286</v>
+      </c>
+      <c r="C153">
+        <v>126381</v>
+      </c>
+      <c r="D153">
+        <v>3911892</v>
+      </c>
+      <c r="E153">
+        <v>79932</v>
+      </c>
+      <c r="F153">
+        <v>4059030</v>
+      </c>
+      <c r="G153">
+        <v>42162</v>
+      </c>
+      <c r="H153">
+        <v>20200618</v>
+      </c>
+      <c r="I153">
+        <v>452364</v>
+      </c>
+      <c r="J153">
+        <v>4287</v>
+      </c>
+      <c r="K153">
+        <v>1864</v>
+      </c>
+      <c r="L153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>8610506</v>
+      </c>
+      <c r="C154">
+        <v>187220</v>
+      </c>
+      <c r="D154">
+        <v>4000120</v>
+      </c>
+      <c r="E154">
+        <v>88228</v>
+      </c>
+      <c r="F154">
+        <v>4151023</v>
+      </c>
+      <c r="G154">
+        <v>91993</v>
+      </c>
+      <c r="H154">
+        <v>20200619</v>
+      </c>
+      <c r="I154">
+        <v>459363</v>
+      </c>
+      <c r="J154">
+        <v>6999</v>
+      </c>
+      <c r="K154">
+        <v>1868</v>
+      </c>
+      <c r="L154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>8769844</v>
+      </c>
+      <c r="C155">
+        <v>159338</v>
+      </c>
+      <c r="D155">
+        <v>4103553</v>
+      </c>
+      <c r="E155">
+        <v>103433</v>
+      </c>
+      <c r="F155">
+        <v>4202546</v>
+      </c>
+      <c r="G155">
+        <v>51523</v>
+      </c>
+      <c r="H155">
+        <v>20200620</v>
+      </c>
+      <c r="I155">
+        <v>463745</v>
+      </c>
+      <c r="J155">
+        <v>4382</v>
+      </c>
+      <c r="K155">
+        <v>1869</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>8896452</v>
+      </c>
+      <c r="C156">
+        <v>126608</v>
+      </c>
+      <c r="D156">
+        <v>4160908</v>
+      </c>
+      <c r="E156">
+        <v>57355</v>
+      </c>
+      <c r="F156">
+        <v>4268071</v>
+      </c>
+      <c r="G156">
+        <v>65525</v>
+      </c>
+      <c r="H156">
+        <v>20200621</v>
+      </c>
+      <c r="I156">
+        <v>467473</v>
+      </c>
+      <c r="J156">
+        <v>3728</v>
+      </c>
+      <c r="K156">
+        <v>1869</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>9033247</v>
+      </c>
+      <c r="C157">
+        <v>136795</v>
+      </c>
+      <c r="D157">
+        <v>4237107</v>
+      </c>
+      <c r="E157">
+        <v>76199</v>
+      </c>
+      <c r="F157">
+        <v>4325653</v>
+      </c>
+      <c r="G157">
+        <v>57582</v>
+      </c>
+      <c r="H157">
+        <v>20200622</v>
+      </c>
+      <c r="I157">
+        <v>470487</v>
+      </c>
+      <c r="J157">
+        <v>3014</v>
+      </c>
+      <c r="K157">
+        <v>1885</v>
+      </c>
+      <c r="L157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>9206951</v>
+      </c>
+      <c r="C158">
+        <v>173704</v>
+      </c>
+      <c r="D158">
+        <v>4371809</v>
+      </c>
+      <c r="E158">
+        <v>134702</v>
+      </c>
+      <c r="F158">
+        <v>4358585</v>
+      </c>
+      <c r="G158">
+        <v>32932</v>
+      </c>
+      <c r="H158">
+        <v>20200623</v>
+      </c>
+      <c r="I158">
+        <v>476557</v>
+      </c>
+      <c r="J158">
+        <v>6070</v>
+      </c>
+      <c r="K158">
+        <v>1888</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>9377948</v>
+      </c>
+      <c r="C159">
+        <v>170997</v>
+      </c>
+      <c r="D159">
+        <v>4476764</v>
+      </c>
+      <c r="E159">
+        <v>104955</v>
+      </c>
+      <c r="F159">
+        <v>4419358</v>
+      </c>
+      <c r="G159">
+        <v>60773</v>
+      </c>
+      <c r="H159">
+        <v>20200624</v>
+      </c>
+      <c r="I159">
+        <v>481826</v>
+      </c>
+      <c r="J159">
+        <v>5269</v>
+      </c>
+      <c r="K159">
+        <v>1893</v>
+      </c>
+      <c r="L159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>9585112</v>
+      </c>
+      <c r="C160">
+        <v>207164</v>
+      </c>
+      <c r="D160">
+        <v>4547711</v>
+      </c>
+      <c r="E160">
+        <v>70947</v>
+      </c>
+      <c r="F160">
+        <v>4547587</v>
+      </c>
+      <c r="G160">
+        <v>128229</v>
+      </c>
+      <c r="H160">
+        <v>20200625</v>
+      </c>
+      <c r="I160">
+        <v>489814</v>
+      </c>
+      <c r="J160">
+        <v>7988</v>
+      </c>
+      <c r="K160">
+        <v>1895</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>9746240</v>
+      </c>
+      <c r="C161">
+        <v>161128</v>
+      </c>
+      <c r="D161">
+        <v>4663362</v>
+      </c>
+      <c r="E161">
+        <v>115651</v>
+      </c>
+      <c r="F161">
+        <v>4589574</v>
+      </c>
+      <c r="G161">
+        <v>41987</v>
+      </c>
+      <c r="H161">
+        <v>20200626</v>
+      </c>
+      <c r="I161">
+        <v>493304</v>
+      </c>
+      <c r="J161">
+        <v>3490</v>
+      </c>
+      <c r="K161">
+        <v>1899</v>
+      </c>
+      <c r="L161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>9905845</v>
+      </c>
+      <c r="C162">
+        <v>159605</v>
+      </c>
+      <c r="D162">
+        <v>4740744</v>
+      </c>
+      <c r="E162">
+        <v>77382</v>
+      </c>
+      <c r="F162">
+        <v>4668015</v>
+      </c>
+      <c r="G162">
+        <v>78441</v>
+      </c>
+      <c r="H162">
+        <v>20200627</v>
+      </c>
+      <c r="I162">
+        <v>497086</v>
+      </c>
+      <c r="J162">
+        <v>3782</v>
+      </c>
+      <c r="K162">
+        <v>1902</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>10083545</v>
+      </c>
+      <c r="C163">
+        <v>177700</v>
+      </c>
+      <c r="D163">
+        <v>4850703</v>
+      </c>
+      <c r="E163">
+        <v>109959</v>
+      </c>
+      <c r="F163">
+        <v>4731836</v>
+      </c>
+      <c r="G163">
+        <v>63821</v>
+      </c>
+      <c r="H163">
+        <v>20200628</v>
+      </c>
+      <c r="I163">
+        <v>501006</v>
+      </c>
+      <c r="J163">
+        <v>3920</v>
+      </c>
+      <c r="K163">
+        <v>1907</v>
+      </c>
+      <c r="L163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>10242138</v>
+      </c>
+      <c r="C164">
+        <v>158593</v>
+      </c>
+      <c r="D164">
+        <v>5110913</v>
+      </c>
+      <c r="E164">
+        <v>260210</v>
+      </c>
+      <c r="F164">
+        <v>4626506</v>
+      </c>
+      <c r="G164">
+        <v>-105330</v>
+      </c>
+      <c r="H164">
+        <v>20200629</v>
+      </c>
+      <c r="I164">
+        <v>504719</v>
+      </c>
+      <c r="J164">
+        <v>3713</v>
+      </c>
+      <c r="K164">
+        <v>1918</v>
+      </c>
+      <c r="L164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>10413355</v>
+      </c>
+      <c r="C165">
+        <v>171217</v>
+      </c>
+      <c r="D165">
+        <v>5252487</v>
+      </c>
+      <c r="E165">
+        <v>141574</v>
+      </c>
+      <c r="F165">
+        <v>4650537</v>
+      </c>
+      <c r="G165">
+        <v>24031</v>
+      </c>
+      <c r="H165">
+        <v>20200630</v>
+      </c>
+      <c r="I165">
+        <v>510331</v>
+      </c>
+      <c r="J165">
+        <v>5612</v>
+      </c>
+      <c r="K165">
+        <v>1918</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>10611778</v>
+      </c>
+      <c r="C166">
+        <v>198423</v>
+      </c>
+      <c r="D166">
+        <v>5324636</v>
+      </c>
+      <c r="E166">
+        <v>72149</v>
+      </c>
+      <c r="F166">
+        <v>4772722</v>
+      </c>
+      <c r="G166">
+        <v>122185</v>
+      </c>
+      <c r="H166">
+        <v>20200701</v>
+      </c>
+      <c r="I166">
+        <v>514420</v>
+      </c>
+      <c r="J166">
+        <v>4089</v>
+      </c>
+      <c r="K166">
+        <v>1920</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>10755671</v>
+      </c>
+      <c r="C167">
+        <v>143893</v>
+      </c>
+      <c r="D167">
+        <v>5478376</v>
+      </c>
+      <c r="E167">
+        <v>153740</v>
+      </c>
+      <c r="F167">
+        <v>4758246</v>
+      </c>
+      <c r="G167">
+        <v>-14476</v>
+      </c>
+      <c r="H167">
+        <v>20200702</v>
+      </c>
+      <c r="I167">
+        <v>519049</v>
+      </c>
+      <c r="J167">
+        <v>4629</v>
+      </c>
+      <c r="K167">
+        <v>1923</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>